--- a/biology/Botanique/Backeb/Backeb..xlsx
+++ b/biology/Botanique/Backeb/Backeb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curt Backeberg, né le 2 août 1894 à Lunebourg et mort le 14 janvier 1966, est un botaniste et un horticulteur allemand, spécialement connu pour sa collection et sa classification des cactées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il voyage en Amérique centrale et du sud et publie de nombreux livres sur les cactus, notamment son fameux Die Cactaceae : Handbuch der Kakteenkunde de 4 000 pages en six volumes (1958-1962) et son Kakteenlexikon, qui paraît la première fois en 1966, mis à jour après sa mort.
 Il se marie avec Emmy Marks en 1919.
